--- a/Inputs_Data_largePlans/84_NY_NY-PFRS.xlsx
+++ b/Inputs_Data_largePlans/84_NY_NY-PFRS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_largePlans_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_Data_largePlans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="509">
   <si>
     <t>TOC</t>
   </si>
@@ -1578,6 +1578,9 @@
   </si>
   <si>
     <t>84_NY_NY-PFRS</t>
+  </si>
+  <si>
+    <t>March 31 2016</t>
   </si>
 </sst>
 </file>
@@ -17502,7 +17505,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17512,7 +17515,7 @@
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="31.140625" customWidth="1"/>
@@ -17648,7 +17651,9 @@
       <c r="G11" s="104">
         <v>1000000</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>508</v>
+      </c>
       <c r="I11" s="26" t="s">
         <v>344</v>
       </c>
@@ -17679,7 +17684,9 @@
       <c r="G12" s="104">
         <v>1000000</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="26" t="s">
+        <v>508</v>
+      </c>
       <c r="I12" s="26" t="s">
         <v>344</v>
       </c>
@@ -17710,7 +17717,9 @@
       <c r="G13" s="104">
         <v>1000000</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>508</v>
+      </c>
       <c r="I13" s="26" t="s">
         <v>344</v>
       </c>
@@ -17741,7 +17750,9 @@
       <c r="G14" s="104">
         <v>1000000</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="26" t="s">
+        <v>508</v>
+      </c>
       <c r="I14" s="26" t="s">
         <v>344</v>
       </c>
@@ -17772,7 +17783,9 @@
       <c r="G15" s="104">
         <v>1000000</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>508</v>
+      </c>
       <c r="I15" s="26" t="s">
         <v>344</v>
       </c>
@@ -17803,7 +17816,9 @@
       <c r="G16" s="104">
         <v>1000000</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>508</v>
+      </c>
       <c r="I16" s="26" t="s">
         <v>344</v>
       </c>
@@ -17834,7 +17849,9 @@
       <c r="G17" s="104">
         <v>1000000</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="26" t="s">
+        <v>508</v>
+      </c>
       <c r="I17" s="26" t="s">
         <v>344</v>
       </c>
@@ -17867,7 +17884,9 @@
       <c r="G18" s="26">
         <v>1</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="26" t="s">
+        <v>508</v>
+      </c>
       <c r="I18" s="26"/>
       <c r="J18" s="25"/>
       <c r="K18" s="26" t="s">

--- a/Inputs_Data_largePlans/84_NY_NY-PFRS.xlsx
+++ b/Inputs_Data_largePlans/84_NY_NY-PFRS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="810" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="810" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="65" r:id="rId1"/>
@@ -2666,14 +2666,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556846</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>665971</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>695279</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>113286</xdr:rowOff>
     </xdr:to>
@@ -2698,8 +2698,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810625" y="7810500"/>
-          <a:ext cx="6228571" cy="8114286"/>
+          <a:off x="6308481" y="8572500"/>
+          <a:ext cx="6219779" cy="8114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2711,15 +2711,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>249848</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>156797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>675549</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>151831</xdr:rowOff>
+      <xdr:colOff>572972</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>137178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2742,8 +2742,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="12934950"/>
-          <a:ext cx="5809524" cy="4552381"/>
+          <a:off x="6609617" y="15968297"/>
+          <a:ext cx="5796336" cy="4552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3778,7 +3778,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6920,7 +6920,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7241,8 +7241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C58:F62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17501,7 +17501,7 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
